--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2742.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2742.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158849267046461</v>
+        <v>1.88789165019989</v>
       </c>
       <c r="B1">
-        <v>2.409429755118128</v>
+        <v>2.820541620254517</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.116150617599487</v>
       </c>
       <c r="D1">
-        <v>2.368587761553608</v>
+        <v>2.670375823974609</v>
       </c>
       <c r="E1">
-        <v>1.220963155400761</v>
+        <v>1.048498272895813</v>
       </c>
     </row>
   </sheetData>
